--- a/data/trans_dic/P15_5-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P15_5-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con nadie de su entorno con COVID-19</t>
+          <t>Población con nadie de su entorno con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>71,01%</t>
+          <t>70,85%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>80,24%</t>
+          <t>80,92%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>50,59%</t>
+          <t>45,02%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>33,3%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>72,36%</t>
+          <t>69,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>82,84%</t>
+          <t>78,79%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>58,53%</t>
+          <t>54,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>43,19%</t>
+          <t>35,63%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>71,74%</t>
+          <t>70,19%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>81,64%</t>
+          <t>79,77%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>54,89%</t>
+          <t>50,02%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>42,54%</t>
+          <t>34,51%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>65,01; 76,55</t>
+          <t>63,36; 78,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>74,59; 84,94</t>
+          <t>74,54; 86,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,86; 56,98</t>
+          <t>35,29; 53,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>35,25; 51,67</t>
+          <t>24,61; 47,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>67,72; 76,97</t>
+          <t>62,94; 75,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>78,38; 86,73</t>
+          <t>73,11; 84,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>53,04; 64,48</t>
+          <t>47,27; 61,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>36,85; 52,59</t>
+          <t>29,36; 43,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>68,15; 75,12</t>
+          <t>65,12; 75,3</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>78,51; 84,66</t>
+          <t>75,51; 84,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>50,49; 59,38</t>
+          <t>44,07; 55,99</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>37,98; 49,06</t>
+          <t>28,52; 41,65</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>80,04%</t>
+          <t>79,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>85,77%</t>
+          <t>86,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>57,28%</t>
+          <t>56,86%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>33,48%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>83,95%</t>
+          <t>83,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>88,63%</t>
+          <t>89,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>56,97%</t>
+          <t>55,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>41,41%</t>
+          <t>42,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>82,14%</t>
+          <t>81,31%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>87,28%</t>
+          <t>88,34%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>57,12%</t>
+          <t>55,94%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>37,48%</t>
+          <t>36,39%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>75,0; 84,69</t>
+          <t>70,43; 85,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>80,23; 90,34</t>
+          <t>79,64; 91,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>49,81; 64,71</t>
+          <t>47,1; 66,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,61; 41,33</t>
+          <t>21,11; 38,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>78,62; 87,84</t>
+          <t>76,59; 88,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>83,75; 92,01</t>
+          <t>84,24; 93,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>50,23; 62,89</t>
+          <t>48,08; 62,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,92; 47,77</t>
+          <t>34,31; 50,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>78,67; 85,25</t>
+          <t>76,72; 85,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>84,1; 89,96</t>
+          <t>84,23; 91,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>51,85; 61,92</t>
+          <t>50,18; 61,72</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,43; 42,09</t>
+          <t>29,72; 41,82</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>74,96%</t>
+          <t>71,19%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>88,08%</t>
+          <t>90,54%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>56,8%</t>
+          <t>64,06%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>40,9%</t>
+          <t>46,41%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>78,71%</t>
+          <t>80,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>86,43%</t>
+          <t>91,98%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>56,13%</t>
+          <t>65,93%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>39,98%</t>
+          <t>43,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>76,73%</t>
+          <t>75,63%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>87,28%</t>
+          <t>91,25%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>56,48%</t>
+          <t>65,01%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>40,47%</t>
+          <t>44,99%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>61,34; 85,32</t>
+          <t>48,5; 88,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>77,21; 95,39</t>
+          <t>74,87; 97,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>41,95; 72,13</t>
+          <t>40,79; 85,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,04; 59,98</t>
+          <t>21,47; 76,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>67,03; 87,45</t>
+          <t>63,58; 91,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>76,4; 93,64</t>
+          <t>78,73; 97,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>42,82; 68,04</t>
+          <t>48,46; 78,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,69; 52,59</t>
+          <t>27,18; 60,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>67,5; 83,52</t>
+          <t>64,21; 86,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>80,23; 92,53</t>
+          <t>81,9; 96,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>45,33; 66,45</t>
+          <t>50,44; 78,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>30,24; 51,43</t>
+          <t>30,15; 65,26</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>75,04%</t>
+          <t>74,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>83,39%</t>
+          <t>84,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>54,09%</t>
+          <t>51,94%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38,35%</t>
+          <t>33,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>77,6%</t>
+          <t>76,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>85,51%</t>
+          <t>84,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>57,67%</t>
+          <t>55,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42,15%</t>
+          <t>39,21%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>76,4%</t>
+          <t>75,24%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>84,51%</t>
+          <t>84,47%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>55,96%</t>
+          <t>53,95%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>40,29%</t>
+          <t>36,36%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>70,93; 78,6</t>
+          <t>68,82; 78,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,71; 86,66</t>
+          <t>79,86; 88,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,23; 58,51</t>
+          <t>44,62; 58,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,64; 44,25</t>
+          <t>27,05; 42,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>74,66; 80,64</t>
+          <t>71,71; 80,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>82,78; 88,16</t>
+          <t>80,74; 87,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>53,87; 61,61</t>
+          <t>50,72; 60,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,02; 47,68</t>
+          <t>34,51; 44,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>73,84; 78,72</t>
+          <t>71,9; 78,39</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>82,42; 86,67</t>
+          <t>81,74; 87,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>52,81; 58,99</t>
+          <t>49,96; 58,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>36,8; 44,64</t>
+          <t>32,62; 41,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1216,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con nadie de su entorno con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>281.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>259135</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>348016</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>164836</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>126815</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>303162</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>400915</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>228953</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>145199</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>562297</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>748932</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>393788</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>272013</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>231721; 285552</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>320570; 372574</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>129199; 195369</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>93722; 180814</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>274009; 329389</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>372008; 429992</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>199052; 258344</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>119658; 177452</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>521636; 603183</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>708935; 790670</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>346967; 440743</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>224823; 328354</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>241843</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>310862</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>181016</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>96892</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>290564</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>382399</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>186399</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>142401</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>532407</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>693261</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>367415</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>239294</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>214620; 261015</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>286211; 330146</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>149935; 210136</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>68116; 122881</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>268141; 308213</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>358329; 398795</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>162710; 210770</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>114944; 168054</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>502366; 561940</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>661023; 720233</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>329587; 405354</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>195466; 275043</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>60392</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>92140</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>50997</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>39721</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>66243</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>93048</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>53765</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>35921</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>126635</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>185187</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>104762</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>75642</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>41138; 74746</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>76191; 99583</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>32469; 68072</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18378; 65804</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>52522; 75453</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>79648; 98620</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>39521; 63780</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>22434; 49852</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>107516; 144248</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>166194; 196651</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>81289; 125922</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>50695; 109726</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>257.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>301.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>334.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>528.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>591.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>376.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>561370</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>751018</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>396848</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>263428</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>659969</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>876362</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>469116</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>323521</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1221339</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1627381</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>865965</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>586949</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>519773; 595751</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>711768; 786868</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>340916; 448494</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>213451; 332852</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>622448; 694822</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>835892; 910558</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>426544; 512883</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>284737; 366625</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1167152; 1272600</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1574814; 1676664</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>801957; 932690</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>526518; 668301</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>